--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_16-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_16-17.xlsx
@@ -32,13 +32,19 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALEAVIA 20ML DROPS</t>
   </si>
   <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>AMARYL 3 MG 30 TABS</t>
@@ -826,7 +832,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -852,11 +858,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -878,11 +884,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -904,7 +910,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>-28</v>
+        <v>24</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -924,13 +930,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -942,7 +948,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -950,17 +956,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -976,17 +982,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -994,7 +1000,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1002,17 +1008,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>27.5</v>
+        <v>47</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1034,11 +1040,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>17</v>
+        <v>27.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1060,11 +1066,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1086,11 +1092,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1106,17 +1112,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1132,17 +1138,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,17 +1164,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1176,7 +1182,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1184,13 +1190,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1202,7 +1208,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1210,17 +1216,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1236,17 +1242,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>50</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1254,7 +1260,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1262,17 +1268,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1280,7 +1286,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1288,17 +1294,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1306,7 +1312,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1314,13 +1320,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1332,7 +1338,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1340,13 +1346,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1358,7 +1364,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1366,13 +1372,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1384,7 +1390,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1392,13 +1398,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1410,7 +1416,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1418,17 +1424,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>-57</v>
+        <v>31</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1436,7 +1442,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1444,17 +1450,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1462,7 +1468,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1470,17 +1476,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1488,7 +1494,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1496,17 +1502,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1514,7 +1520,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1522,13 +1528,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1540,7 +1546,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1548,17 +1554,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1566,7 +1572,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1574,17 +1580,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1592,7 +1598,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1600,17 +1606,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>-185</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1618,7 +1624,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1626,17 +1632,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1644,7 +1650,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1652,17 +1658,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1678,17 +1684,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>70</v>
+        <v>45.5</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1696,7 +1702,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1704,13 +1710,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1722,7 +1728,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1730,13 +1736,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1748,7 +1754,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1756,13 +1762,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1774,7 +1780,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1782,17 +1788,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1814,11 +1820,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1834,17 +1840,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1852,7 +1858,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1860,13 +1866,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1892,11 +1898,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1904,7 +1910,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1912,17 +1918,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1930,7 +1936,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1938,13 +1944,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1956,7 +1962,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1964,13 +1970,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -1982,7 +1988,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1990,51 +1996,77 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>70</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" ht="26.25" customHeight="1">
-      <c r="K50" s="10">
-        <v>1588.3199999999999</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
         <v>73</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c t="s" r="F51" s="12">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
         <v>74</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c t="s" r="I51" s="14">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>70</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c t="s" r="N50" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="K51" s="10">
+        <v>1603.3199999999999</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="11">
         <v>75</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c t="s" r="F52" s="12">
+        <v>76</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+      <c t="s" r="I52" s="14">
+        <v>77</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="152">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2180,10 +2212,13 @@
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:N52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
